--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.329076</v>
+        <v>110.3882446666667</v>
       </c>
       <c r="H2">
-        <v>213.987228</v>
+        <v>331.164734</v>
       </c>
       <c r="I2">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="J2">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N2">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O2">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P2">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q2">
-        <v>24.06645401875867</v>
+        <v>35.89888269898644</v>
       </c>
       <c r="R2">
-        <v>216.598086168828</v>
+        <v>323.089944290878</v>
       </c>
       <c r="S2">
-        <v>0.005749579386943696</v>
+        <v>0.006611712308862106</v>
       </c>
       <c r="T2">
-        <v>0.005749579386943698</v>
+        <v>0.006611712308862106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.329076</v>
+        <v>110.3882446666667</v>
       </c>
       <c r="H3">
-        <v>213.987228</v>
+        <v>331.164734</v>
       </c>
       <c r="I3">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="J3">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.133935</v>
       </c>
       <c r="O3">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P3">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q3">
-        <v>1192.002419931353</v>
+        <v>1844.732360960921</v>
       </c>
       <c r="R3">
-        <v>10728.02177938218</v>
+        <v>16602.59124864829</v>
       </c>
       <c r="S3">
-        <v>0.2847745055205193</v>
+        <v>0.3397554113255435</v>
       </c>
       <c r="T3">
-        <v>0.2847745055205194</v>
+        <v>0.3397554113255435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.329076</v>
+        <v>110.3882446666667</v>
       </c>
       <c r="H4">
-        <v>213.987228</v>
+        <v>331.164734</v>
       </c>
       <c r="I4">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="J4">
-        <v>0.3307464087015077</v>
+        <v>0.4177264991141899</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N4">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q4">
-        <v>168.361655865676</v>
+        <v>387.4521047124304</v>
       </c>
       <c r="R4">
-        <v>1515.254902791084</v>
+        <v>3487.068942411874</v>
       </c>
       <c r="S4">
-        <v>0.04022232379404469</v>
+        <v>0.0713593754797843</v>
       </c>
       <c r="T4">
-        <v>0.0402223237940447</v>
+        <v>0.0713593754797843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>388.684601</v>
       </c>
       <c r="I5">
-        <v>0.6007649947142102</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="J5">
-        <v>0.6007649947142101</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N5">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O5">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P5">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q5">
-        <v>43.71410464631123</v>
+        <v>42.13414493042412</v>
       </c>
       <c r="R5">
-        <v>393.426941816801</v>
+        <v>379.207304373817</v>
       </c>
       <c r="S5">
-        <v>0.01044348763624358</v>
+        <v>0.007760097911563426</v>
       </c>
       <c r="T5">
-        <v>0.01044348763624358</v>
+        <v>0.007760097911563425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>388.684601</v>
       </c>
       <c r="I6">
-        <v>0.6007649947142102</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="J6">
-        <v>0.6007649947142101</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.133935</v>
       </c>
       <c r="O6">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P6">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q6">
         <v>2165.143169114993</v>
@@ -818,10 +818,10 @@
         <v>19486.28852203494</v>
       </c>
       <c r="S6">
-        <v>0.5172620164658396</v>
+        <v>0.3987673895513881</v>
       </c>
       <c r="T6">
-        <v>0.5172620164658396</v>
+        <v>0.398767389551388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>388.684601</v>
       </c>
       <c r="I7">
-        <v>0.6007649947142102</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="J7">
-        <v>0.6007649947142101</v>
+        <v>0.4902812436402899</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N7">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q7">
-        <v>305.8106955516504</v>
+        <v>454.7485020755902</v>
       </c>
       <c r="R7">
-        <v>2752.296259964854</v>
+        <v>4092.736518680312</v>
       </c>
       <c r="S7">
-        <v>0.07305949061212695</v>
+        <v>0.08375375617733848</v>
       </c>
       <c r="T7">
-        <v>0.07305949061212696</v>
+        <v>0.08375375617733846</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.770314</v>
+        <v>24.30983866666667</v>
       </c>
       <c r="H8">
-        <v>44.310942</v>
+        <v>72.92951600000001</v>
       </c>
       <c r="I8">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="J8">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N8">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O8">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P8">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q8">
-        <v>4.983508867037999</v>
+        <v>7.905697290152445</v>
       </c>
       <c r="R8">
-        <v>44.85157980334199</v>
+        <v>71.151275611372</v>
       </c>
       <c r="S8">
-        <v>0.0011905817049009</v>
+        <v>0.001456039635598868</v>
       </c>
       <c r="T8">
-        <v>0.0011905817049009</v>
+        <v>0.001456039635598868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.770314</v>
+        <v>24.30983866666667</v>
       </c>
       <c r="H9">
-        <v>44.310942</v>
+        <v>72.92951600000001</v>
       </c>
       <c r="I9">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="J9">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.133935</v>
       </c>
       <c r="O9">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P9">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q9">
-        <v>246.83132066853</v>
+        <v>406.2492905250512</v>
       </c>
       <c r="R9">
-        <v>2221.48188601677</v>
+        <v>3656.24361472546</v>
       </c>
       <c r="S9">
-        <v>0.0589690642527432</v>
+        <v>0.07482136581110961</v>
       </c>
       <c r="T9">
-        <v>0.05896906425274322</v>
+        <v>0.07482136581110961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.770314</v>
+        <v>24.30983866666667</v>
       </c>
       <c r="H10">
-        <v>44.310942</v>
+        <v>72.92951600000001</v>
       </c>
       <c r="I10">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="J10">
-        <v>0.06848859658428214</v>
+        <v>0.09199225724552029</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N10">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q10">
-        <v>34.863125420214</v>
+        <v>85.32519187220845</v>
       </c>
       <c r="R10">
-        <v>313.768128781926</v>
+        <v>767.9267268498761</v>
       </c>
       <c r="S10">
-        <v>0.008328950626638024</v>
+        <v>0.01571485179881182</v>
       </c>
       <c r="T10">
-        <v>0.008328950626638028</v>
+        <v>0.01571485179881182</v>
       </c>
     </row>
   </sheetData>
